--- a/cdc_api_v0.2.xlsx
+++ b/cdc_api_v0.2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="131">
   <si>
     <t>api</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,10 +90,6 @@
   </si>
   <si>
     <t>admin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置抵押率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -121,23 +117,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cdp_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"8000000"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>获取债仓清算信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算目前债仓是否需要清算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取稳定费年利率历史变更数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -195,64 +175,279 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>CDC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collateralized Debt Commitments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setLiquidationPenalty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setAnnualStabilityFee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setLiquidationRatio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setLiquidationDiscount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeAdmin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>globalLiquidate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdc_id,wishPayStableTokenAmount,wishGetAssetAmount
+债仓ID,想付的稳定币数量,想获取的抵押资产数量
+eg "id2435r,30000,500"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCdc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdc_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cdcId,owner,抵押品数量,贷出稳定币数量,稳定费,需偿还稳定币总数,是否需要被清算,[拍卖抵押品数量,目前喂价, 拍卖价,罚金,返还抵押品数量,是否坏账(资不抵债)]
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要清算：
+"{\"cdcId\":\"795543a581611adf1bb678a0a43f33edc0e087aee59bcf436163b55c7fc1d7e9\",\"owner\":\"user1\",\"curPrice\":\"8.1\",\"isBadDebt\":false,\"auctionPrice\":\"7.857\",\"returnAmount\":3706862,\"stabilityFee\":5180,\"penaltyAmount\":78000000,\"secSinceEpoch\":1563852177,\"collateralAmount\":90000000,\"isNeedLiquidation\":true,\"stableTokenAmount\":600000000,\"repayStableTokenAmount\":678005180,\"auctionCollateralAmount\":86293138}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"cdcId\":\"795543a581611adf1bb678a0a43f33edc0e087aee59bcf436163b55c7fc1d7e9\",\"owner\":\"user1\",\"stabilityFee\":\"2957\",\"secSinceEpoch\":1563848985,\"collateralAmount\":90000000,\"stableTokenAmount\":600000000}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseCdc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalLiquidate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"cdcId\":\"5497319ab2e250fc0482ef9daedec46bd6ff2ced2ef227e49ead6ba5171a71c8\",\"owner\":\"user1\",\"curPrice\":\"8.1\",\"isBadDebt\":false,\"liquidator\":\"user2\",\"auctionPrice\":\"7.857\",\"returnAmount\":3707410,\"stabilityFee\":879,\"penaltyAmount\":78000000,\"secSinceEpoch\":1563861309,\"collateralAmount\":90000000,\"isNeedLiquidation\":true,\"stableTokenAmount\":600000000,\"repayStableTokenAmount\":678000879,\"auctionCollateralAmount\":86292590}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"cdcId\":\"795543a581611adf1bb678a0a43f33edc0e087aee59bcf436163b55c7fc1d7e9\",\"owner\":\"user1\",\"returnAmount\":23555}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakeBackCollateralByCdc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakeBackCollateralByToken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"owner\":\"user1\",\"returnAmount\":23555}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>""</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CDC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collateralized Debt Commitments</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cdc_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sec_since_epoch,稳定费年利率
-["4585950593,0.13","4585950998,0.14"]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>setLiquidationPenalty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>setCollateralizationRatio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>setAnnualStabilityFee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>setLiquidationRatio</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>setLiquidationDiscount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>changeAdmin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>globalLiquidate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>liquidate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>getLiquidableInfo</t>
+    <t>"newAdmin"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"newAddress"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"0.04"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1.35"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"0.15"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1.60"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"proxyAddr\":\"CON12e8507942e05abb85aef03e0a779d2776e6f0f3\",\"collateralAsset\":\"HC\",\"priceFeederAddr\":\"CON2b99c27ed5c2a06dbce8e333a98b4233389321ec\",\"stableTokenAddr\":\"CON869c3fd41cff756529e3ead1fc31c451a39d6d64\",\"liquidationRatio\":\"1.25\",\"annualStabilityFee\":\"0.15\",\"liquidationPenalty\":\"0.13\",\"liquidationDiscount\":\"0.03\",\"collateralizationRatio\":\"1.5\"}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>takeBackCollateralByCdc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>takeBackCollateralByToken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anynoe(允许非cdc owner调用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anyone(允许非stable token owner调用）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局清算 (全局清算  稳定币合约stop，用户可通过调用takeBackCollateralByCdc 和 takeBackCollateralByToken按某固定价格清算账务拿回抵押品)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局清算后，用户拿回减去债务和稳定费后剩余的抵押品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cdc_id
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局清算后，用户可将稳定币按现价换成抵押品拿回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">liquidationRatio
+e.g "1.25"
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cdc_id
+e.g "id2435r“
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>closeCdc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置清算抵押率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账抵押品资产到合约，如果参数为addCollateral,cdc_id
+表示追加抵押品
+addCollateral</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string类型
+”NOT_INITED“或“COMMON”或“STOPPED”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置清算折扣 ( 0.03 表示清算时降价%3出售抵押品)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">liquidationPenalty
+e.g "0.13"   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置清算罚金（假设为0.13 若已有稳定币债务2000，清算时收取罚金为2000*0.13）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">liquidationDiscount
+e.g "0.03"  
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加抵押品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭债仓（同时会偿还债务)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清算(抵押率跌破清算抵押率时可被清算,清算时会收取罚金，抵押品被打折出售)（任何人可调用此API来通过付出稳定币购买打折的抵押品）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">“”
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭合约, 全局清算后，admin可将合约余额转账到自己</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>closeContract</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setPriceFeederAddr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账抵押品资产到合约，如果参数为openCdc,wishGetStableTokenAmount，表示开债仓
+openCdc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+“openCdc,100000”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开债仓(抵押率大于风险抵押率）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdc owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提取抵押品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cdc_id,amount
+e.g "id2435r,500“
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -262,26 +457,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cdc_id,wishPayStableTokenAmount,wishGetAssetAmount
-债仓ID,想付的稳定币数量,想获取的抵押资产数量
-eg "id2435r,30000,500"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转账抵押品资产到合约，如果参数为openCdc，表示开债仓
-openCdc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCdc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAnnualStabilityFeeHistory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>getInfo</t>
+    <t>转移cdc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -289,8 +465,98 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cdcId,owner,抵押资产数量,贷出稳定币数量,抵押时间(secSinceEpoch),目前所需偿还的稳定费
-"{\"cdcId\":\"795543a581611adf1bb678a0a43f33edc0e087aee59bcf436163b55c7fc1d7e9\",\"owner\":\"user1\",\"stabilityFee\":\"2957\",\"secSinceEpoch\":1563848985,\"collateralAmount\":90000000,\"stableTokenAmount\":600000000}"</t>
+    <t>expandLoan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdc_id,expandLoanAmount
+e.g "id2435r,30000"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"cdcId\":\"795543a581611adf1bb678a0a43f33edc0e087aee59bcf436163b55c7fc1d7e9\",\"owner\":\"user1\",\"stabilityFee\":\"2957\",\"secSinceEpoch\":1563848985,\"collateralAmount\":90000000,\"stableTokenAmount\":600000000}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpandLoan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>widrawCollateral</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>transferCdc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>payBack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdc_id,repay_stable_token_amount
+e.g "id2435r,30000"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getLiquidableInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需清算：
+"{\"cdcId\":\"795543a581611adf1bb678a0a43f33edc0e087aee59bcf436163b55c7fc1d7e9\",\"owner\":\"user1\",\"stabilityFee\":229,\"secSinceEpoch\":1563852177,\"collateralAmount\":90000000,\"isNeedLiquidation\":false,\"stableTokenAmount\":600000000,\"repayStableTokenAmount\":600000229}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cdcId,owner,抵押资产数量,贷出稳定币数量,抵押时间(secSinceEpoch),目前所需偿还的稳定费
+"{\"cdcId\":\"795543a581611adf1bb678a0a43f33edc0e087aee59bcf436163b55c7fc1d7e9\",\"owner\":\"user1\",\"stabilityFee\":\"2957\",\"secSinceEpoch\":1563848985,\"collateralAmount\":90000000,\"stableTokenAmount\":600000000,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\"isNeedLiquidation\":\"false\"}"</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款(可部分偿还，数额需大于原有贷款所产生的利息）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdc owner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"cdcId\":\"2b1609ea3455ead6b2c6fcce679e3efea2c6720387b94098be8d2c5a638ec046\",\"repayFee\":16,\"from_address\":\"user1\",\"realGotAmount\":5999984,\"expandLoanAmount\":6000000}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"cdcId\":\"2b1609ea3455ead6b2c6fcce679e3efea2c6720387b94098be8d2c5a638ec046\",\"from_address\":\"user1\",\"widrawCollateralAmount\":800}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取更多贷款(需要付原有贷款利息，真实获取到的稳定币为expandLoanAmount-stabilityFee)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"fee\":760,\"cdcId\":\"6fc3292d932bc8bf0d3d5d1a805863d798036edd69bd8dc4d9196fc39da9a57a\",\"from_address\":\"user1\",\"payBackAmount\":60768,\"repayPrincipal\":60008,\"realPayBackAmount\":60768}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"cdcId\":\"3c4888e44659ae6876365ccb164504c833f7602102627c2b291edfc544aa5681\",\"to_address\":\"user4\",\"from_address\":\"user3\"}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collateralAsset,AnnualStabilityFee,liquidationRatio,liquidationPenalty,liquidationDiscount,priceFeederAddr,stableTokenAddr,proxyAddr
+抵押资产,稳定费年利率,清算抵押率,清算罚金,清算折扣,喂价合约地址,稳定币地址,代理合约地址
+e.g "BTC,0.1,1.25,0.13,0.03,contwr343rrwr,conttgjsl23upz,conrr33t"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -307,46 +573,27 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"{\"admin\":\"SL123\",\"proxy\":\"CON42fe2ef3f3cb0a0170ba9ff9c685e76a34b9a1b3\",\"state\":\"COMMON\",\"collateralAsset\":\"HC\",\"priceFeederAddr\":\"CONc1c428bba8ff285d43eb36fc9e20bd285962c9a3\",\"stableTokenAddr\":\"CON1c4128a39c990fe33fa448d69bcae0e6cc0ae394\",\"liquidationRatio\":\"1.25\",\"annualStabilityFee\":\"0.15\",\"liquidationPenalty\":\"0.13\",\"liquidationDiscount\":\"0.03\",\"annualStabilityFeeList\":[\"1563788931,0.15\"],\"collateralizationRatio\":\"1.5\",\"totalLiquidationPenalty\":0,\"totalCollectedStablityFee\":0}"</t>
+      <t>"{\"admin\":\"SL123\",\"proxy\":\"CON42fe2ef3f3cb0a0170ba9ff9c685e76a34b9a1b3\",\"state\":\"COMMON\",\"collateralAsset\":\"HC\",\"priceFeederAddr\":\"CONc1c428bba8ff285d43eb36fc9e20bd285962c9a3\",\"stableTokenAddr\":\"CON1c4128a39c990fe33fa448d69bcae0e6cc0ae394\",\"liquidationRatio\":\"1.25\",\"annualStabilityFee\":\"0.15\",\"liquidationPenalty\":\"0.13\",\"liquidationDiscount\":\"0.03\",\"annualStabilityFeeList\":[\"1563788931,0.15\"],\"totalLiquidationPenalty\":0,\"totalCollectedStablityFee\":0}"</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>计算目前债仓所需偿还的稳定费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cdcId,owner,抵押品数量,贷出稳定币数量,稳定费,需偿还稳定币总数,是否需要被清算,[拍卖抵押品数量,目前喂价, 拍卖价,罚金,返还抵押品数量,是否坏账(资不抵债)]
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无需清算：
-"{\"cdcId\":\"795543a581611adf1bb678a0a43f33edc0e087aee59bcf436163b55c7fc1d7e9\",\"owner\":\"user1\",\"stabilityFee\":229,\"secSinceEpoch\":1563852177,\"collateralAmount\":90000000,\"isNeedLiquidation\":false,\"stableTokenAmount\":600000000,\"repayStableTokenAmount\":600000229}"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>isNeedLiquidation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要清算：
-"{\"cdcId\":\"795543a581611adf1bb678a0a43f33edc0e087aee59bcf436163b55c7fc1d7e9\",\"owner\":\"user1\",\"curPrice\":\"8.1\",\"isBadDebt\":false,\"auctionPrice\":\"7.857\",\"returnAmount\":3706862,\"stabilityFee\":5180,\"penaltyAmount\":78000000,\"secSinceEpoch\":1563852177,\"collateralAmount\":90000000,\"isNeedLiquidation\":true,\"stableTokenAmount\":600000000,\"repayStableTokenAmount\":678005180,\"auctionCollateralAmount\":86293138}"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{\"cdcId\":\"795543a581611adf1bb678a0a43f33edc0e087aee59bcf436163b55c7fc1d7e9\",\"owner\":\"user1\",\"stabilityFee\":\"2957\",\"secSinceEpoch\":1563848985,\"collateralAmount\":90000000,\"stableTokenAmount\":600000000}"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CloseCdc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>OpenCdc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>WidrawCollateral</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayBack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"cdcId\":\"5497319ab2e250fc0482ef9daedec46bd6ff2ced2ef227e49ead6ba5171a71c8\",\"addAmount":10000}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>AddCollateral</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -355,208 +602,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GlobalLiquidate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{\"cdcId\":\"5497319ab2e250fc0482ef9daedec46bd6ff2ced2ef227e49ead6ba5171a71c8\",\"owner\":\"user1\",\"curPrice\":\"8.1\",\"isBadDebt\":false,\"liquidator\":\"user2\",\"auctionPrice\":\"7.857\",\"returnAmount\":3707410,\"stabilityFee\":879,\"penaltyAmount\":78000000,\"secSinceEpoch\":1563861309,\"collateralAmount\":90000000,\"isNeedLiquidation\":true,\"stableTokenAmount\":600000000,\"repayStableTokenAmount\":678000879,\"auctionCollateralAmount\":86292590}"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{\"cdcId\":\"5497319ab2e250fc0482ef9daedec46bd6ff2ced2ef227e49ead6ba5171a71c8\",\"addAmount":10000}"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"true"/"false"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{\"cdcId\":\"795543a581611adf1bb678a0a43f33edc0e087aee59bcf436163b55c7fc1d7e9\",\"owner\":\"user1\",\"returnAmount\":23555}"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TakeBackCollateralByCdc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TakeBackCollateralByToken</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{\"owner\":\"user1\",\"returnAmount\":23555}"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>""</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"newAdmin"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"newAddress"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"0.04"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1.35"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"0.15"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1.60"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{\"proxyAddr\":\"CON12e8507942e05abb85aef03e0a779d2776e6f0f3\",\"collateralAsset\":\"HC\",\"priceFeederAddr\":\"CON2b99c27ed5c2a06dbce8e333a98b4233389321ec\",\"stableTokenAddr\":\"CON869c3fd41cff756529e3ead1fc31c451a39d6d64\",\"liquidationRatio\":\"1.25\",\"annualStabilityFee\":\"0.15\",\"liquidationPenalty\":\"0.13\",\"liquidationDiscount\":\"0.03\",\"collateralizationRatio\":\"1.5\"}"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>takeBackCollateralByCdc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>takeBackCollateralByToken</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>anynoe(允许非cdc owner调用)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>anyone(允许非stable token owner调用）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局清算 (全局清算  稳定币合约stop，用户可通过调用takeBackCollateralByCdc 和 takeBackCollateralByToken按某固定价格清算账务拿回抵押品)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局清算后，用户拿回减去债务和稳定费后剩余的抵押品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cdc_id
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局清算后，用户可将稳定币按现价换成抵押品拿回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">liquidationRatio
-e.g "1.25"
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">collateralizationRatio
-e.g "1.5"
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cdc_id
-e.g "id2435r“
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>closeCdc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-“openCdc”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>collateralAsset,collateralizationRatio,AnnualStabilityFee,liquidationRatio,liquidationPenalty,liquidationDiscount,priceFeederAddr,stableTokenAddr,proxyAddr
-抵押资产,抵押率,稳定费年利率,清算抵押率,清算罚金,清算折扣,喂价合约地址,稳定币地址,代理合约地址
-e.g "BTC,1.5,0.1,1.25,0.13,0.03,contwr343rrwr,conttgjsl23upz,conrr33t"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置清算抵押率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转账抵押品资产到合约，如果参数为addCollateral,cdc_id
-表示追加抵押品
-addCollateral</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string类型
-”NOT_INITED“或“COMMON”或“STOPPED”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>getStabilityFee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置清算折扣 ( 0.03 表示清算时降价%3出售抵押品)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">liquidationPenalty
-e.g "0.13"   </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置清算罚金（假设为0.13 若已有稳定币债务2000，清算时收取罚金为2000*0.13）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">liquidationDiscount
-e.g "0.03"  
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>追加抵押品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开债仓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭债仓（同时会偿还债务)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清算(抵押率跌破清算抵押率时可被清算,清算时会收取罚金，抵押品被打折出售)（任何人可调用此API来通过付出稳定币购买打折的抵押品）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">“”
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭合约, 全局清算后，admin可将合约余额转账到自己</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>closeContract</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>setPriceFeederAddr</t>
+    <t>TransferCdc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +610,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,6 +678,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -677,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -705,6 +759,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -987,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H60"/>
+  <dimension ref="C2:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1005,12 +1062,12 @@
   <sheetData>
     <row r="2" spans="3:6">
       <c r="C2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="3:6">
@@ -1038,29 +1095,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="85.5">
+    <row r="14" spans="3:6" ht="71.25">
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="57">
-      <c r="C15" s="3" t="s">
-        <v>59</v>
+    <row r="15" spans="3:6" ht="85.5">
+      <c r="C15" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>6</v>
@@ -1068,111 +1125,111 @@
     </row>
     <row r="16" spans="3:6" ht="71.25">
       <c r="C16" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="42.75">
-      <c r="C17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>118</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="28.5">
+      <c r="C17" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="57">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="57">
-      <c r="C19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="28.5">
+      <c r="C20" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="42.75">
+      <c r="C21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="57">
-      <c r="C20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="57">
-      <c r="C21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="42.75">
+    </row>
+    <row r="22" spans="3:6" ht="57">
       <c r="C22" s="3" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="57">
       <c r="C23" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
@@ -1180,27 +1237,27 @@
     </row>
     <row r="24" spans="3:6" ht="57">
       <c r="C24" s="3" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="57">
+    <row r="25" spans="3:6" ht="42.75">
       <c r="C25" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>5</v>
@@ -1208,190 +1265,190 @@
     </row>
     <row r="26" spans="3:6" ht="57">
       <c r="C26" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:6" ht="42.75">
+    <row r="27" spans="3:6" ht="57">
       <c r="C27" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" ht="42.75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="57">
       <c r="C28" s="3" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" ht="42.75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="57">
       <c r="C29" s="3" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="3:6">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="3:6" ht="18">
-      <c r="C31" s="5" t="s">
+    <row r="30" spans="3:6" ht="42.75">
+      <c r="C30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="42.75">
+      <c r="C31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" ht="42.75">
+      <c r="C32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="3:8" ht="18">
+      <c r="C34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="3:6">
-      <c r="C32" s="3" t="s">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="28.5">
-      <c r="C33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="3" t="s">
+    <row r="36" spans="3:8" ht="28.5">
+      <c r="C36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" ht="242.25">
-      <c r="C34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" ht="28.5">
-      <c r="C35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" ht="128.25">
-      <c r="C36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="228">
       <c r="C37" s="3" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="142.5">
       <c r="C38" s="3" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="285">
       <c r="C39" s="3" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="3:8">
@@ -1438,129 +1495,180 @@
     </row>
     <row r="47" spans="3:8" ht="85.5">
       <c r="C47" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="57">
       <c r="C48" s="3" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="3:5" ht="28.5">
       <c r="C49" s="3" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="3:5" ht="99.75">
       <c r="C50" s="3" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="3:5">
       <c r="C51" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="3:5">
       <c r="C52" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="3:5">
       <c r="C53" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="3:5" ht="57">
       <c r="C54" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="3:5">
       <c r="C55" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="3:5">
       <c r="C56" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="3:5">
       <c r="C57" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="3:5">
       <c r="C58" s="3" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="3:5" ht="28.5">
       <c r="C59" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="3:5" ht="28.5">
       <c r="C60" s="3" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" ht="42.75">
+      <c r="C61" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" ht="42.75">
+      <c r="C62" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" ht="42.75">
+      <c r="C63" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" ht="28.5">
+      <c r="C64" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="3:5">
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="3:5">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/cdc_api_v0.2.xlsx
+++ b/cdc_api_v0.2.xlsx
@@ -461,10 +461,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cdc_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>expandLoan</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -603,6 +599,10 @@
   </si>
   <si>
     <t>TransferCdc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdc_id,to_address</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1103,7 +1103,7 @@
         <v>88</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
@@ -1139,13 +1139,13 @@
     </row>
     <row r="17" spans="3:6" ht="28.5">
       <c r="C17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>98</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="18" spans="3:6" ht="57">
       <c r="C18" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>99</v>
@@ -1167,13 +1167,13 @@
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>102</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>98</v>
@@ -1181,16 +1181,16 @@
     </row>
     <row r="20" spans="3:6" ht="28.5">
       <c r="C20" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="F20" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="42.75">
@@ -1414,7 +1414,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="142.5">
@@ -1428,12 +1428,12 @@
         <v>50</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="285">
       <c r="C39" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>23</v>
@@ -1445,7 +1445,7 @@
         <v>51</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>52</v>
@@ -1504,25 +1504,25 @@
     </row>
     <row r="48" spans="3:8" ht="57">
       <c r="C48" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="3:5" ht="28.5">
       <c r="C49" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="3:5" ht="99.75">
       <c r="C50" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
@@ -1621,38 +1621,38 @@
     </row>
     <row r="61" spans="3:5" ht="42.75">
       <c r="C61" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="3:5" ht="42.75">
       <c r="C62" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="3:5" ht="42.75">
       <c r="C63" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="3:5" ht="28.5">
       <c r="C64" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="3:5">

--- a/cdc_api_v0.2.xlsx
+++ b/cdc_api_v0.2.xlsx
@@ -215,12 +215,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cdc_id,wishPayStableTokenAmount,wishGetAssetAmount
-债仓ID,想付的稳定币数量,想获取的抵押资产数量
-eg "id2435r,30000,500"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>getCdc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -402,10 +396,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>清算(抵押率跌破清算抵押率时可被清算,清算时会收取罚金，抵押品被打折出售)（任何人可调用此API来通过付出稳定币购买打折的抵押品）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">“”
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -442,12 +432,6 @@
   </si>
   <si>
     <t>提取抵押品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cdc_id,amount
-e.g "id2435r,500“
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -470,10 +454,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"{\"cdcId\":\"795543a581611adf1bb678a0a43f33edc0e087aee59bcf436163b55c7fc1d7e9\",\"owner\":\"user1\",\"stabilityFee\":\"2957\",\"secSinceEpoch\":1563848985,\"collateralAmount\":90000000,\"stableTokenAmount\":600000000}"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ExpandLoan</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -487,11 +467,6 @@
   </si>
   <si>
     <t>payBack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cdc_id,repay_stable_token_amount
-e.g "id2435r,30000"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -522,10 +497,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>还款(可部分偿还，数额需大于原有贷款所产生的利息）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cdc owner</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -603,6 +574,35 @@
   </si>
   <si>
     <t>cdc_id,to_address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cdc_id,amount
+e.g "id2435r,500“
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdc_id,wishPayStableTokenAmount,wishGetAssetAmount
+债仓ID,想付的稳定币数量,想获取的抵押资产数量
+eg "id2435r,30000,500"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdc_id,repay_stable_token_amount
+e.g "id2435r,30000"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款(可部分偿还，数额需大于原有贷款所产生的利息）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清算(抵押率跌破清算抵押率时可被清算,清算时会收取罚金，抵押品被打折出售)（任何人可调用此API来通过付出稳定币购买打折的抵押品）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"cdcId\":\"795543a581611adf1bb678a0a43f33edc0e087aee59bcf436163b55c7fc1d7e9\",\"owner\":\"user1\",\"secSinceEpoch\":1563848985,\"collateralAmount\":90000000,\"stableTokenAmount\":600000000}"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1100,10 +1100,10 @@
         <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>17</v>
@@ -1111,13 +1111,13 @@
     </row>
     <row r="15" spans="3:6" ht="85.5">
       <c r="C15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>6</v>
@@ -1125,72 +1125,72 @@
     </row>
     <row r="16" spans="3:6" ht="71.25">
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="28.5">
       <c r="C17" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="57">
       <c r="C18" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="28.5">
       <c r="C20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="42.75">
@@ -1198,10 +1198,10 @@
         <v>46</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>18</v>
@@ -1209,16 +1209,16 @@
     </row>
     <row r="22" spans="3:6" ht="57">
       <c r="C22" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="57">
@@ -1240,10 +1240,10 @@
         <v>42</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
@@ -1254,10 +1254,10 @@
         <v>40</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>5</v>
@@ -1268,10 +1268,10 @@
         <v>43</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="27" spans="3:6" ht="57">
       <c r="C27" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>20</v>
@@ -1310,7 +1310,7 @@
         <v>45</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>36</v>
@@ -1321,41 +1321,41 @@
     </row>
     <row r="30" spans="3:6" ht="42.75">
       <c r="C30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="F30" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="3:6" ht="42.75">
       <c r="C31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="3:6" ht="42.75">
       <c r="C32" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
@@ -1400,12 +1400,12 @@
         <v>36</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="228">
       <c r="C37" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>24</v>
@@ -1414,41 +1414,41 @@
         <v>36</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="142.5">
       <c r="C38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="285">
       <c r="C39" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="40" spans="3:8">
@@ -1499,34 +1499,34 @@
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" ht="57">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" ht="42.75">
       <c r="C48" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="3:5" ht="28.5">
       <c r="C49" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="3:5" ht="99.75">
       <c r="C50" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="3:5">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="3:5">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="3:5">
@@ -1553,16 +1553,16 @@
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="3:5" ht="57">
       <c r="C54" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="3:5">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="3:5">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="3:5">
@@ -1589,70 +1589,70 @@
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="3:5">
       <c r="C58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="3:5" ht="28.5">
       <c r="C59" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="3:5" ht="28.5">
       <c r="C60" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="3:5" ht="42.75">
       <c r="C61" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="3:5" ht="42.75">
       <c r="C62" s="11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="3:5" ht="42.75">
       <c r="C63" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="3:5" ht="28.5">
       <c r="C64" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="3:5">

--- a/cdc_api_v0.2.xlsx
+++ b/cdc_api_v0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获取合约状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">所有event </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -183,10 +179,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>state</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>setLiquidationPenalty</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -212,6 +204,12 @@
   </si>
   <si>
     <t>liquidate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdc_id,wishPayStableTokenAmount,wishGetAssetAmount
+债仓ID,想付的稳定币数量,想获取的抵押资产数量
+eg "id2435r,30000,500"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -249,23 +247,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"{\"cdcId\":\"5497319ab2e250fc0482ef9daedec46bd6ff2ced2ef227e49ead6ba5171a71c8\",\"owner\":\"user1\",\"curPrice\":\"8.1\",\"isBadDebt\":false,\"liquidator\":\"user2\",\"auctionPrice\":\"7.857\",\"returnAmount\":3707410,\"stabilityFee\":879,\"penaltyAmount\":78000000,\"secSinceEpoch\":1563861309,\"collateralAmount\":90000000,\"isNeedLiquidation\":true,\"stableTokenAmount\":600000000,\"repayStableTokenAmount\":678000879,\"auctionCollateralAmount\":86292590}"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{\"cdcId\":\"795543a581611adf1bb678a0a43f33edc0e087aee59bcf436163b55c7fc1d7e9\",\"owner\":\"user1\",\"returnAmount\":23555}"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TakeBackCollateralByCdc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TakeBackCollateralByToken</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{\"owner\":\"user1\",\"returnAmount\":23555}"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -360,11 +346,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>string类型
-”NOT_INITED“或“COMMON”或“STOPPED”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>设置清算折扣 ( 0.03 表示清算时降价%3出售抵押品)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -396,6 +377,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>清算(抵押率跌破清算抵押率时可被清算,清算时会收取罚金，抵押品被打折出售)（任何人可调用此API来通过付出稳定币购买打折的抵押品）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">“”
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -432,6 +417,12 @@
   </si>
   <si>
     <t>提取抵押品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cdc_id,amount
+e.g "id2435r,500“
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -467,6 +458,11 @@
   </si>
   <si>
     <t>payBack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdc_id,repay_stable_token_amount
+e.g "id2435r,30000"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -497,15 +493,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>还款(可部分偿还，数额需大于原有贷款所产生的利息）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>cdc owner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{\"cdcId\":\"2b1609ea3455ead6b2c6fcce679e3efea2c6720387b94098be8d2c5a638ec046\",\"repayFee\":16,\"from_address\":\"user1\",\"realGotAmount\":5999984,\"expandLoanAmount\":6000000}"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{\"cdcId\":\"2b1609ea3455ead6b2c6fcce679e3efea2c6720387b94098be8d2c5a638ec046\",\"from_address\":\"user1\",\"widrawCollateralAmount\":800}"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -549,11 +541,57 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>PayBack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddCollateral</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liquidate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransferCdc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdc_id,to_address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeProxy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换代理合约地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">newProxyContractAddr
+e.g "conretm38rwsu"
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"cdcId\":\"2b1609ea3455ead6b2c6fcce679e3efea2c6720387b94098be8d2c5a638ec046\",\"from_address\":\"user1\",\"widrawCollateralAmount\":800}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"owner\":\"user1\",\"returnAmount\":23555}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"cdcId\":\"795543a581611adf1bb678a0a43f33edc0e087aee59bcf436163b55c7fc1d7e9\",\"owner\":\"user1\",\"returnAmount\":23555}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>WidrawCollateral</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PayBack</t>
+    <t>"{\"cdcId\":\"795543a581611adf1bb678a0a43f33edc0e087aee59bcf436163b55c7fc1d7e9\",\"owner\":\"user1\",\"secSinceEpoch\":1563848985,\"collateralAmount\":90000000,\"stableTokenAmount\":600000000}"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -561,48 +599,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AddCollateral</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liquidate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TransferCdc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cdc_id,to_address</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cdc_id,amount
-e.g "id2435r,500“
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cdc_id,wishPayStableTokenAmount,wishGetAssetAmount
-债仓ID,想付的稳定币数量,想获取的抵押资产数量
-eg "id2435r,30000,500"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cdc_id,repay_stable_token_amount
-e.g "id2435r,30000"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>还款(可部分偿还，数额需大于原有贷款所产生的利息）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清算(抵押率跌破清算抵押率时可被清算,清算时会收取罚金，抵押品被打折出售)（任何人可调用此API来通过付出稳定币购买打折的抵押品）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{\"cdcId\":\"795543a581611adf1bb678a0a43f33edc0e087aee59bcf436163b55c7fc1d7e9\",\"owner\":\"user1\",\"secSinceEpoch\":1563848985,\"collateralAmount\":90000000,\"stableTokenAmount\":600000000}"</t>
+    <t>"{\"cdcId\":\"5497319ab2e250fc0482ef9daedec46bd6ff2ced2ef227e49ead6ba5171a71c8\",\"owner\":\"user1\",\"curPrice\":\"8.1\",\"isBadDebt\":false,\"liquidator\":\"user2\",\"auctionPrice\":\"7.857\",\"returnAmount\":3707410,\"stabilityFee\":879,\"penaltyAmount\":78000000,\"secSinceEpoch\":1563861309,\"collateralAmount\":90000000,\"isNeedLiquidation\":true,\"stableTokenAmount\":600000000,\"repayStableTokenAmount\":678000879,\"auctionCollateralAmount\":86292590}"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"cdcId\":\"2b1609ea3455ead6b2c6fcce679e3efea2c6720387b94098be8d2c5a638ec046\",\"repayFee\":16,\"from_address\":\"user1\",\"realGotAmount\":5999984,\"expandLoanAmount\":6000000}"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1046,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1062,12 +1063,12 @@
   <sheetData>
     <row r="2" spans="3:6">
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="3:6">
@@ -1097,27 +1098,27 @@
     </row>
     <row r="14" spans="3:6" ht="71.25">
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="85.5">
       <c r="C15" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>6</v>
@@ -1125,111 +1126,111 @@
     </row>
     <row r="16" spans="3:6" ht="71.25">
       <c r="C16" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="3:6" ht="28.5">
       <c r="C17" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="57">
       <c r="C18" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="28.5">
       <c r="C20" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="3:6" ht="42.75">
       <c r="C21" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="3:6" ht="57">
       <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="57">
       <c r="C23" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
@@ -1237,13 +1238,13 @@
     </row>
     <row r="24" spans="3:6" ht="57">
       <c r="C24" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
@@ -1251,13 +1252,13 @@
     </row>
     <row r="25" spans="3:6" ht="42.75">
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>5</v>
@@ -1265,13 +1266,13 @@
     </row>
     <row r="26" spans="3:6" ht="57">
       <c r="C26" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>5</v>
@@ -1279,13 +1280,13 @@
     </row>
     <row r="27" spans="3:6" ht="57">
       <c r="C27" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>5</v>
@@ -1293,13 +1294,13 @@
     </row>
     <row r="28" spans="3:6" ht="57">
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>5</v>
@@ -1307,148 +1308,148 @@
     </row>
     <row r="29" spans="3:6" ht="57">
       <c r="C29" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="3:6" ht="42.75">
+    <row r="30" spans="3:6" ht="57">
       <c r="C30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="E30" s="3" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="3:6" ht="42.75">
       <c r="C31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="E31" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="3:6" ht="42.75">
       <c r="C32" s="3" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="42.75">
+      <c r="C33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="3:8" ht="18">
-      <c r="C34" s="5" t="s">
+    <row r="34" spans="3:8">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="3:8" ht="18">
+      <c r="C35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="3:8">
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" ht="28.5">
-      <c r="C36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="228">
       <c r="C37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="142.5">
       <c r="C38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="285">
       <c r="C39" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="40" spans="3:8">
@@ -1477,182 +1478,182 @@
     </row>
     <row r="45" spans="3:8" ht="20.25">
       <c r="C45" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="3:8">
       <c r="C46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="85.5">
       <c r="C47" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="42.75">
       <c r="C48" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="3:5" ht="28.5">
       <c r="C49" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="3:5" ht="99.75">
       <c r="C50" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="3:5">
       <c r="C51" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="3:5">
       <c r="C52" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="3:5">
       <c r="C53" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="3:5" ht="57">
       <c r="C54" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="3:5">
       <c r="C55" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="3:5">
       <c r="C56" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="3:5">
       <c r="C57" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="3:5">
       <c r="C58" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="3:5" ht="28.5">
       <c r="C59" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="3:5" ht="28.5">
       <c r="C60" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="3:5" ht="42.75">
       <c r="C61" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="3:5" ht="42.75">
       <c r="C62" s="11" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="3:5" ht="42.75">
       <c r="C63" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="3:5" ht="28.5">
       <c r="C64" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="3:5">
